--- a/biology/Médecine/Ossification_enchondrale/Ossification_enchondrale.xlsx
+++ b/biology/Médecine/Ossification_enchondrale/Ossification_enchondrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossification enchondrale[1] ou endochondrale est un mécanisme d'ossification primaire, au même titre que l'ossification endoconjonctive, qui lui transforme le tissu cartilagineux en os. Celle-ci a lieu avant l'âge adulte. L'ossification enchondrale se fait de manière centripète, l'ossification endoconjonctive se fait de manière centrifuge. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossification enchondrale ou endochondrale est un mécanisme d'ossification primaire, au même titre que l'ossification endoconjonctive, qui lui transforme le tissu cartilagineux en os. Celle-ci a lieu avant l'âge adulte. L'ossification enchondrale se fait de manière centripète, l'ossification endoconjonctive se fait de manière centrifuge. 
 Les cellules mésenchymateuses du périoste se transforment en ostéoblastes. Elles vont ensuite synthétiser de la matrice osseuse pour se transformer en ostéocytes. La matrice osseuse va induire la transformation de plus en plus de cellules mésenchymateuses en ostéoblastes.
 Les ostéocytes communiquent entre eux par des nexus, au sein de canalicules où viennent s'immiscer leurs prolongements cytoplasmique. À partir d’un signal, ils sécrètent une matrice pour s’emmurer : apposition ostéoblastique.
 Simultanément, 2e processus :
